--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3554957.057431083</v>
+        <v>3549179.519430356</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.143223171</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791246</v>
+        <v>419463.0933791239</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6655651.347735127</v>
+        <v>6654471.38895429</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>120.5220388420736</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>35.9781679457186</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>98.54676348899962</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -801,10 +801,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>184.6350624415732</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>275.5886106635689</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>66.38735918291465</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>225.787529266167</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.40667837616422</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348899962</v>
+        <v>1.894826399411825</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>108.1045920014102</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>6.024008024449651</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -1072,7 +1072,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>112.6042614529978</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1184,22 +1184,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>367.9867441724176</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>108.1045920014104</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -1300,13 +1300,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>11.61260049965499</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>210.009904097069</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>113.8222208383483</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1585,13 +1585,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1610,7 +1610,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>304.5664151603045</v>
@@ -1622,7 +1622,7 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>81.61838887131719</v>
+        <v>82.73558215520831</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003579</v>
+        <v>280.4599644277187</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281736</v>
+        <v>273.2139126555345</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415739</v>
+        <v>265.5568836689347</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806959</v>
+        <v>282.5278558080567</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313969</v>
+        <v>296.6956602587578</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029518</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752492</v>
+        <v>204.81238610261</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453477</v>
+        <v>20.92391191189562</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443489</v>
+        <v>48.81858568179574</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622524</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158223</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495917</v>
+        <v>222.6559073769526</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274704</v>
+        <v>251.2592108548312</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623486</v>
+        <v>269.5282451897095</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346799</v>
+        <v>276.4959681620407</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046322</v>
+        <v>67.32610467782406</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074562</v>
+        <v>52.47323292810647</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258535</v>
+        <v>38.0469481399462</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546446</v>
+        <v>37.97339019282531</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523173</v>
+        <v>39.72284161259257</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762386</v>
+        <v>50.54167953498471</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419591</v>
+        <v>37.89393170155675</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536784</v>
+        <v>15.73364728272868</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982376</v>
+        <v>6.632145647184601</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535107</v>
+        <v>84.75808915271192</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595232</v>
+        <v>117.332027486884</v>
       </c>
       <c r="U34" t="n">
-        <v>172.998032486593</v>
+        <v>166.5545700139539</v>
       </c>
       <c r="V34" t="n">
-        <v>153.733180373459</v>
+        <v>147.2897179008198</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942091</v>
+        <v>164.46726422157</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409217</v>
+        <v>115.7096851682825</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.294569217598</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380521</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357248</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596462</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380518</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596459</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118669</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252671</v>
+        <v>285.119878025267</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643891</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>106.3740388304712</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>242.218901733285</v>
+        <v>124.2175601048149</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111636</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460419</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183731</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415644</v>
+        <v>86.88909903415636</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443885</v>
+        <v>72.03622728443877</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627858</v>
+        <v>57.60994249627849</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915769</v>
+        <v>57.5363845491576</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892496</v>
+        <v>59.28583596892487</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131709</v>
+        <v>70.10467389131701</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788913</v>
+        <v>57.45692605788905</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906106</v>
+        <v>35.29664163906098</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351698</v>
+        <v>26.1951400035169</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432164</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
         <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
         <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012913</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118669</v>
+        <v>292.7769070118667</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252671</v>
+        <v>285.119878025267</v>
       </c>
       <c r="E44" t="n">
-        <v>290.9321303358952</v>
+        <v>302.0908501643889</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150902</v>
+        <v>212.789155759532</v>
       </c>
       <c r="G44" t="n">
-        <v>312.564288486645</v>
+        <v>312.5642884866449</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589424</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812811</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459457</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995154</v>
       </c>
       <c r="V44" t="n">
-        <v>242.218901733285</v>
+        <v>242.2189017332848</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111636</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460419</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415643</v>
+        <v>86.88909903415633</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443884</v>
+        <v>72.03622728443874</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627856</v>
+        <v>57.60994249627846</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915767</v>
+        <v>57.53638454915757</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892494</v>
+        <v>59.28583596892484</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131708</v>
+        <v>70.10467389131698</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788912</v>
+        <v>57.45692605788902</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906105</v>
+        <v>35.29664163906095</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351697</v>
+        <v>26.19514000351687</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432164</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702862</v>
+        <v>186.1175643702861</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779023</v>
+        <v>184.0302585779022</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012911</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1649.707683642511</v>
+        <v>184.2141449736449</v>
       </c>
       <c r="C2" t="n">
-        <v>1256.532182145442</v>
+        <v>184.2141449736449</v>
       </c>
       <c r="D2" t="n">
-        <v>871.0910533621093</v>
+        <v>184.2141449736449</v>
       </c>
       <c r="E2" t="n">
-        <v>468.5075284786539</v>
+        <v>184.2141449736449</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6534940490357</v>
+        <v>171.3601105440267</v>
       </c>
       <c r="G2" t="n">
-        <v>42.49073853703881</v>
+        <v>162.2377590724339</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703881</v>
+        <v>162.2377590724339</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K2" t="n">
-        <v>187.1405114458669</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L2" t="n">
-        <v>187.1405114458669</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="M2" t="n">
-        <v>712.9634008417222</v>
+        <v>550.6768587708627</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.464273687141</v>
+        <v>1051.843641766313</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.50387457947</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710992</v>
+        <v>1840.070734790163</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137462</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S2" t="n">
-        <v>2086.544013137462</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="T2" t="n">
-        <v>2086.544013137462</v>
+        <v>1596.909223717101</v>
       </c>
       <c r="U2" t="n">
-        <v>2086.544013137462</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="V2" t="n">
-        <v>2086.544013137462</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="W2" t="n">
-        <v>2050.202429353908</v>
+        <v>970.1574591199869</v>
       </c>
       <c r="X2" t="n">
-        <v>2050.202429353908</v>
+        <v>580.7048540530437</v>
       </c>
       <c r="Y2" t="n">
-        <v>2050.202429353908</v>
+        <v>184.2141449736449</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>839.8643090386531</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>689.2100785987453</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202257</v>
       </c>
       <c r="E3" t="n">
-        <v>424.66703296953</v>
+        <v>422.6746203311134</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526618</v>
+        <v>298.2428142142452</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861097</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512721</v>
+        <v>89.88557988671064</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K3" t="n">
-        <v>155.6057207567662</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L3" t="n">
-        <v>155.6057207567662</v>
+        <v>843.8035578591619</v>
       </c>
       <c r="M3" t="n">
-        <v>442.207294593816</v>
+        <v>1289.384420380771</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896712</v>
+        <v>1790.551203376221</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580652</v>
+        <v>1790.551203376221</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.17183529705</v>
+        <v>1790.551203376221</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R3" t="n">
-        <v>2124.53692685194</v>
+        <v>2000.999251829176</v>
       </c>
       <c r="S3" t="n">
-        <v>2124.53692685194</v>
+        <v>1866.068574729045</v>
       </c>
       <c r="T3" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U3" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606595</v>
       </c>
       <c r="V3" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977662</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.274350692512</v>
+        <v>1026.364372110949</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>839.8643090386531</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.6530561180311</v>
+        <v>839.8643090386531</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.86900871093687</v>
+        <v>366.3365569301183</v>
       </c>
       <c r="C4" t="n">
-        <v>72.86900871093687</v>
+        <v>196.1314389961075</v>
       </c>
       <c r="D4" t="n">
-        <v>72.86900871093687</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="E4" t="n">
-        <v>72.86900871093687</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="F4" t="n">
-        <v>72.86900871093687</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="G4" t="n">
-        <v>72.86900871093687</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H4" t="n">
-        <v>72.86900871093687</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I4" t="n">
-        <v>72.86900871093687</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>820.0367717111683</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S4" t="n">
-        <v>617.2206878937177</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T4" t="n">
-        <v>617.2206878937177</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="U4" t="n">
-        <v>617.2206878937177</v>
+        <v>656.5065566820756</v>
       </c>
       <c r="V4" t="n">
-        <v>351.2413427145419</v>
+        <v>656.5065566820756</v>
       </c>
       <c r="W4" t="n">
-        <v>72.86900871093687</v>
+        <v>656.5065566820756</v>
       </c>
       <c r="X4" t="n">
-        <v>72.86900871093687</v>
+        <v>589.4486181134749</v>
       </c>
       <c r="Y4" t="n">
-        <v>72.86900871093687</v>
+        <v>366.3365569301183</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>529.1069182480105</v>
+        <v>822.0555415844044</v>
       </c>
       <c r="C5" t="n">
-        <v>529.1069182480105</v>
+        <v>428.880040087335</v>
       </c>
       <c r="D5" t="n">
-        <v>143.6657894646783</v>
+        <v>428.880040087335</v>
       </c>
       <c r="E5" t="n">
-        <v>143.6657894646783</v>
+        <v>200.8118287073683</v>
       </c>
       <c r="F5" t="n">
-        <v>130.8117550350601</v>
+        <v>187.9577942777502</v>
       </c>
       <c r="G5" t="n">
-        <v>121.6894035634673</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="H5" t="n">
-        <v>121.6894035634673</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703881</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K5" t="n">
-        <v>42.49073853703881</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>535.8110302555676</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="M5" t="n">
-        <v>810.4869444322347</v>
+        <v>550.6768587708627</v>
       </c>
       <c r="N5" t="n">
-        <v>1336.30983382809</v>
+        <v>1051.843641766313</v>
       </c>
       <c r="O5" t="n">
-        <v>1776.349434720418</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.53692685194</v>
+        <v>1840.070734790163</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137462</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S5" t="n">
-        <v>2086.544013137462</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="T5" t="n">
-        <v>2086.544013137462</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="U5" t="n">
-        <v>2086.544013137462</v>
+        <v>1564.657096592283</v>
       </c>
       <c r="V5" t="n">
-        <v>2086.544013137462</v>
+        <v>1222.550287295801</v>
       </c>
       <c r="W5" t="n">
-        <v>1715.54497810575</v>
+        <v>1222.550287295801</v>
       </c>
       <c r="X5" t="n">
-        <v>1326.092373038806</v>
+        <v>1222.550287295801</v>
       </c>
       <c r="Y5" t="n">
-        <v>929.6016639594075</v>
+        <v>1222.550287295801</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>839.8643090386531</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>689.2100785987453</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202257</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>422.6746203311134</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>298.2428142142452</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861097</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512721</v>
+        <v>89.88557988671064</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703881</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>362.2298845992652</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>362.2298845992652</v>
+        <v>883.7630516643735</v>
       </c>
       <c r="M6" t="n">
-        <v>442.207294593816</v>
+        <v>883.7630516643735</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896712</v>
+        <v>883.7630516643735</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580652</v>
+        <v>1384.929834659824</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.17183529705</v>
+        <v>1790.551203376221</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>2023.0023288711</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1812.939185549742</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1360.281938054095</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>991.6606434796145</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>505.4026254293747</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="C7" t="n">
-        <v>505.4026254293747</v>
+        <v>832.7487908629926</v>
       </c>
       <c r="D7" t="n">
-        <v>505.4026254293747</v>
+        <v>677.1156777655073</v>
       </c>
       <c r="E7" t="n">
-        <v>505.4026254293747</v>
+        <v>521.5568656247098</v>
       </c>
       <c r="F7" t="n">
-        <v>499.3177688390215</v>
+        <v>364.2309308376827</v>
       </c>
       <c r="G7" t="n">
-        <v>331.063714938467</v>
+        <v>195.9768769371283</v>
       </c>
       <c r="H7" t="n">
-        <v>175.5851638999609</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>741.1216772611406</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>505.4026254293747</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="U7" t="n">
-        <v>505.4026254293747</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="V7" t="n">
-        <v>505.4026254293747</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="W7" t="n">
-        <v>505.4026254293747</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="X7" t="n">
-        <v>505.4026254293747</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="Y7" t="n">
-        <v>505.4026254293747</v>
+        <v>941.9453484401746</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632.5971671495322</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="C8" t="n">
-        <v>632.5971671495322</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="D8" t="n">
-        <v>632.5971671495322</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="E8" t="n">
-        <v>632.5971671495322</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1819.035227007271</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X8" t="n">
-        <v>1429.582621940328</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="Y8" t="n">
-        <v>1033.091912860929</v>
+        <v>207.6264729102897</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>54.70361680265978</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>374.4427628648862</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N9" t="n">
         <v>1443.506853769802</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>528.7100132738371</v>
       </c>
       <c r="C10" t="n">
-        <v>839.5634350659138</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="D10" t="n">
-        <v>683.9303219684286</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E10" t="n">
-        <v>528.3715098276311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -5002,10 +5002,10 @@
         <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>937.0300931484951</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.9180319651384</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1520.303839177572</v>
+        <v>1642.069506034398</v>
       </c>
       <c r="C11" t="n">
-        <v>1222.069018967691</v>
+        <v>1343.834685824516</v>
       </c>
       <c r="D11" t="n">
-        <v>1009.937802708025</v>
+        <v>1053.334238328373</v>
       </c>
       <c r="E11" t="n">
-        <v>702.2949591117579</v>
+        <v>745.6913947321052</v>
       </c>
       <c r="F11" t="n">
-        <v>380.341201928924</v>
+        <v>423.7376375492711</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2945.144336927563</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.97820891827</v>
+        <v>2658.657462271327</v>
       </c>
       <c r="W11" t="n">
-        <v>2421.919855173746</v>
+        <v>2543.685522030572</v>
       </c>
       <c r="X11" t="n">
-        <v>2127.407931393991</v>
+        <v>2249.173598250817</v>
       </c>
       <c r="Y11" t="n">
-        <v>1825.85790360178</v>
+        <v>1947.623570458606</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>658.8001958221562</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1286.571845448837</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1286.571845448837</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1803.092128039818</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2208.713496756216</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551006</v>
+        <v>493.0843669551007</v>
       </c>
       <c r="C13" t="n">
         <v>417.8199303082781</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979812</v>
+        <v>357.1274984979814</v>
       </c>
       <c r="E13" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443721</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445333</v>
+        <v>234.1241141445335</v>
       </c>
       <c r="G13" t="n">
         <v>160.8107415311672</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798495</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5203,46 +5203,46 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791398</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469771</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
-        <v>1649.242993404582</v>
+        <v>1649.242993404583</v>
       </c>
       <c r="S13" t="n">
         <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U13" t="n">
         <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852105</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553818</v>
+        <v>711.5230842553819</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592135</v>
+        <v>583.3517043592136</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1681.115887455785</v>
+        <v>1391.743918024177</v>
       </c>
       <c r="C14" t="n">
-        <v>1382.881067245904</v>
+        <v>1093.509097814296</v>
       </c>
       <c r="D14" t="n">
-        <v>1092.38061974976</v>
+        <v>1093.509097814296</v>
       </c>
       <c r="E14" t="n">
-        <v>784.7377761534926</v>
+        <v>785.8662542180289</v>
       </c>
       <c r="F14" t="n">
-        <v>462.7840189706587</v>
+        <v>463.912497035195</v>
       </c>
       <c r="G14" t="n">
-        <v>144.5619447458501</v>
+        <v>145.6904228103866</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5306,22 +5306,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2977.396464052381</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2816.584415774168</v>
       </c>
       <c r="V14" t="n">
-        <v>2858.790257196483</v>
+        <v>2569.418287764875</v>
       </c>
       <c r="W14" t="n">
-        <v>2582.731903451959</v>
+        <v>2293.35993402035</v>
       </c>
       <c r="X14" t="n">
-        <v>2288.219979672204</v>
+        <v>1998.848010240596</v>
       </c>
       <c r="Y14" t="n">
-        <v>1986.669951879994</v>
+        <v>1697.297982448385</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>174.7633905351325</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979809</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798492</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5479,7 +5479,7 @@
         <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
         <v>68.77950792924223</v>
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>580.3847592515303</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.156408878212</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5677,13 +5677,13 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
         <v>974.9038003296507</v>
@@ -5744,7 +5744,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,10 +5774,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5829,19 +5829,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5902,7 +5902,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5917,16 +5917,16 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,25 +6014,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879432</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296512</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6236,13 +6236,13 @@
         <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.386271932278</v>
+        <v>2546.304425485126</v>
       </c>
       <c r="O26" t="n">
-        <v>3079.395388107028</v>
+        <v>2986.344026377455</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.58288023855</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.428440379499</v>
@@ -6309,10 +6309,10 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>579.4156798503576</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718128</v>
@@ -6455,55 +6455,55 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563783</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838401</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.28679488479</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658944</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2602.11893248314</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647881</v>
+        <v>3135.209895105042</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508977</v>
+        <v>3483.397387236564</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6549,13 +6549,13 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>1640.815019777314</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192012</v>
@@ -6628,7 +6628,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084637</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144923</v>
+        <v>890.2201666674332</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423742</v>
+        <v>590.5275805474757</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855437</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267653</v>
+        <v>87.68547930209921</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193354</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1065.495048037864</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1611.495948082445</v>
+        <v>1724.373070932327</v>
       </c>
       <c r="N32" t="n">
-        <v>2247.797739360293</v>
+        <v>2354.438084066645</v>
       </c>
       <c r="O32" t="n">
-        <v>2796.327847893007</v>
+        <v>2794.477684958973</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011323</v>
+        <v>3142.665177090495</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152272</v>
+        <v>3327.510737231444</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152272</v>
+        <v>3327.510737231444</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491227</v>
+        <v>3278.199034522559</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448548</v>
+        <v>3171.900284432041</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.44439528105</v>
+        <v>3033.349407216704</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.444450270288</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748664</v>
+        <v>2554.64726758864</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079625</v>
+        <v>2282.396514871762</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.16845439813</v>
+        <v>2003.107658142428</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321163</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027728</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>499.4043430265827</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633125</v>
+        <v>982.9704289248959</v>
       </c>
       <c r="M33" t="n">
-        <v>1612.734491189994</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1612.734491189994</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.254773780975</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.23950485902</v>
+        <v>341.6872565554781</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229133</v>
+        <v>288.6839909715322</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233321</v>
+        <v>250.2527302241118</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804387</v>
+        <v>211.8957704333791</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913158</v>
+        <v>171.7716879964169</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886654</v>
+        <v>120.7194864459273</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806347</v>
+        <v>82.44278775748614</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304544</v>
+        <v>80.40002251285782</v>
       </c>
       <c r="K34" t="n">
-        <v>179.0108193991413</v>
+        <v>162.2350636227997</v>
       </c>
       <c r="L34" t="n">
-        <v>451.6289669133268</v>
+        <v>326.3627034965995</v>
       </c>
       <c r="M34" t="n">
-        <v>746.4110528919766</v>
+        <v>512.6542818348635</v>
       </c>
       <c r="N34" t="n">
-        <v>1038.091194563572</v>
+        <v>695.8439158660726</v>
       </c>
       <c r="O34" t="n">
-        <v>1309.286469245666</v>
+        <v>973.4182183960793</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022244</v>
+        <v>1208.163919660956</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392295</v>
+        <v>1326.455651519306</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422776</v>
+        <v>1319.756514501948</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003229</v>
+        <v>1234.142283034562</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569368</v>
+        <v>1115.625083552861</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209172</v>
+        <v>947.3881441448268</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279009</v>
+        <v>798.6106513157159</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569825</v>
+        <v>632.4821015969584</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378698</v>
+        <v>515.6036317300063</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524171</v>
+        <v>409.6934228967146</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924231</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462925</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031230078</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>278.5901810446711</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184709</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567349</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879441</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296521</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106231</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161911</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974529</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924229</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7202,10 +7202,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7251,13 +7251,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>112.6101842924878</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
         <v>1223.947919817482</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229885</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072231</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>965.7235964838017</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974527</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1693.618740970509</v>
+        <v>1812.812015342702</v>
       </c>
       <c r="C41" t="n">
-        <v>1397.884491463573</v>
+        <v>1517.077765835765</v>
       </c>
       <c r="D41" t="n">
-        <v>1109.884614670374</v>
+        <v>1229.077889042566</v>
       </c>
       <c r="E41" t="n">
-        <v>804.7423417770513</v>
+        <v>923.9356161492442</v>
       </c>
       <c r="F41" t="n">
-        <v>485.2891552971622</v>
+        <v>604.4824296693552</v>
       </c>
       <c r="G41" t="n">
-        <v>169.5676517752985</v>
+        <v>288.7609261474917</v>
       </c>
       <c r="H41" t="n">
         <v>62.11912770411553</v>
@@ -7445,16 +7445,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>2861.290827899428</v>
+        <v>2980.48410227162</v>
       </c>
       <c r="W41" t="n">
-        <v>2587.733044857849</v>
+        <v>2706.926319230041</v>
       </c>
       <c r="X41" t="n">
-        <v>2295.721691781038</v>
+        <v>2414.914966153231</v>
       </c>
       <c r="Y41" t="n">
-        <v>1996.672234691773</v>
+        <v>2115.865509063965</v>
       </c>
     </row>
     <row r="42">
@@ -7497,10 +7497,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1084.690231197904</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344866</v>
+        <v>475.580372034486</v>
       </c>
       <c r="C43" t="n">
-        <v>402.816506090609</v>
+        <v>402.8165060906085</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832569</v>
+        <v>344.6246449832565</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325926</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356987</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690448</v>
+        <v>97.7723010769044</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>68.23195016744091</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K43" t="n">
-        <v>245.5691623529123</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L43" t="n">
-        <v>505.1989733022416</v>
+        <v>505.1989733022401</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160351</v>
+        <v>786.9927227160337</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822774</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940011</v>
+        <v>1323.89146594001</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792119</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.1941702377</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.73443286041</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033093</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423494</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W43" t="n">
-        <v>825.657018155762</v>
+        <v>825.6570181557611</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288782</v>
+        <v>689.0179479288774</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356548</v>
+        <v>563.3471387356541</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1801.540581172507</v>
+        <v>1708.297370034058</v>
       </c>
       <c r="C44" t="n">
-        <v>1505.80633166557</v>
+        <v>1412.563120527121</v>
       </c>
       <c r="D44" t="n">
-        <v>1217.806454872371</v>
+        <v>1124.563243733922</v>
       </c>
       <c r="E44" t="n">
-        <v>923.9356161492443</v>
+        <v>819.4209708405997</v>
       </c>
       <c r="F44" t="n">
-        <v>604.4824296693553</v>
+        <v>604.4824296693552</v>
       </c>
       <c r="G44" t="n">
-        <v>288.7609261474917</v>
+        <v>288.7609261474916</v>
       </c>
       <c r="H44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3036.88408213696</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2910.82473168651</v>
+        <v>2979.897034755326</v>
       </c>
       <c r="U44" t="n">
-        <v>2910.82473168651</v>
+        <v>2821.585557180058</v>
       </c>
       <c r="V44" t="n">
-        <v>2666.159174380162</v>
+        <v>2576.91999987371</v>
       </c>
       <c r="W44" t="n">
-        <v>2392.601391338582</v>
+        <v>2303.362216832131</v>
       </c>
       <c r="X44" t="n">
-        <v>2100.590038261772</v>
+        <v>2011.350863755321</v>
       </c>
       <c r="Y44" t="n">
-        <v>1801.540581172507</v>
+        <v>2011.350863755321</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344865</v>
+        <v>475.5803720344858</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906089</v>
+        <v>402.8165060906083</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832568</v>
+        <v>344.6246449832563</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325925</v>
+        <v>286.5070848325921</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356986</v>
+        <v>226.6224020356983</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252771</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690447</v>
+        <v>97.77230107690437</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822076</v>
+        <v>68.2319501674381</v>
       </c>
       <c r="K46" t="n">
-        <v>305.184768367679</v>
+        <v>245.5691623529096</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170083</v>
+        <v>505.198973302239</v>
       </c>
       <c r="M46" t="n">
-        <v>846.6083287308019</v>
+        <v>786.9927227160326</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954778</v>
+        <v>1323.891465940009</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792119</v>
+        <v>1539.269802792117</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.1941702377</v>
+        <v>1638.194170237698</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.73443286041</v>
+        <v>1611.734432860408</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033092</v>
+        <v>1506.359601033091</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191458</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423494</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557618</v>
+        <v>825.6570181557609</v>
       </c>
       <c r="X46" t="n">
-        <v>689.017947928878</v>
+        <v>689.0179479288772</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356545</v>
+        <v>563.3471387356539</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107123</v>
+        <v>156.3375808259602</v>
       </c>
       <c r="N2" t="n">
-        <v>592.0486659291167</v>
+        <v>655.347565070562</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>381.8836612786552</v>
+        <v>542.4688013640686</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671517</v>
+        <v>591.6011865869446</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>427.1754699579971</v>
+        <v>156.3375808259602</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507692</v>
+        <v>655.347565070562</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>504.6165059314611</v>
       </c>
       <c r="M6" t="n">
-        <v>173.1723846700702</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671517</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216668</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L8" t="n">
-        <v>281.3299123769229</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>89.90975703143043</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8541,7 +8541,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>569.9919810238545</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8766,16 +8766,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>264.4640783312027</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>203.3790190010273</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,13 +9240,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>176.3345925796061</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9258,7 +9258,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,13 +9486,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9714,22 +9714,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>278.2539578070002</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9957,13 +9957,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>166.3231752016892</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>108.8653421701423</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10434,7 +10434,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10443,7 +10443,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>110.5765941352908</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,16 +10899,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>133.4455245943154</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
@@ -11145,13 +11145,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>199.6102425680207</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>514.986373519011</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>77.58553892411351</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.4755493687307</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>145.2325565835406</v>
+        <v>144.1153632996495</v>
       </c>
       <c r="I14" t="n">
         <v>42.96247126414337</v>
@@ -23546,10 +23546,10 @@
         <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>118.0013416284712</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.486906268228</v>
+        <v>40.48690626822791</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25676,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812812</v>
+        <v>68.38158003812804</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459457</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
         <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>118.00134162847</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0229587840511</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,10 +25871,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>11.15871982849383</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>103.4694988555581</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822798</v>
+        <v>40.48690626822788</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812801</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>296.0589625183729</v>
       </c>
     </row>
     <row r="45">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>580465.7503259577</v>
+        <v>579864.2027121973</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>580465.7503259577</v>
+        <v>579864.2027121973</v>
       </c>
     </row>
     <row r="4">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>553475.3303713222</v>
+        <v>553475.3303713223</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>553475.3303713221</v>
+        <v>553475.3303713223</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>703295.4945640914</v>
+        <v>703295.4945640912</v>
       </c>
       <c r="C2" t="n">
+        <v>703295.4945640911</v>
+      </c>
+      <c r="D2" t="n">
         <v>703295.4945640912</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>660956.8784646286</v>
+      </c>
+      <c r="F2" t="n">
+        <v>660956.8784646292</v>
+      </c>
+      <c r="G2" t="n">
+        <v>703295.4945640907</v>
+      </c>
+      <c r="H2" t="n">
+        <v>703295.4945640906</v>
+      </c>
+      <c r="I2" t="n">
+        <v>703295.4945640906</v>
+      </c>
+      <c r="J2" t="n">
         <v>703295.4945640911</v>
       </c>
-      <c r="E2" t="n">
-        <v>660956.8784646289</v>
-      </c>
-      <c r="F2" t="n">
-        <v>660956.8784646288</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>703295.4945640913</v>
+      </c>
+      <c r="L2" t="n">
         <v>703295.494564091</v>
       </c>
-      <c r="H2" t="n">
-        <v>703295.4945640909</v>
-      </c>
-      <c r="I2" t="n">
-        <v>703295.4945640917</v>
-      </c>
-      <c r="J2" t="n">
-        <v>703295.4945640913</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703295.4945640912</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703295.4945640917</v>
-      </c>
       <c r="M2" t="n">
-        <v>703295.494564091</v>
+        <v>703295.4945640905</v>
       </c>
       <c r="N2" t="n">
-        <v>703295.4945640909</v>
+        <v>703295.4945640906</v>
       </c>
       <c r="O2" t="n">
+        <v>663838.8074546237</v>
+      </c>
+      <c r="P2" t="n">
         <v>663838.8074546235</v>
-      </c>
-      <c r="P2" t="n">
-        <v>663838.8074546237</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343507</v>
+        <v>169649.0058765497</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602657</v>
+        <v>26460.41160941832</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469665</v>
+        <v>215329.5897923931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.0333767012</v>
+        <v>46725.80335481255</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436844</v>
+        <v>43782.9719455567</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015687</v>
+        <v>18983.55983015684</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192027.5467249334</v>
+        <v>198138.1733873964</v>
       </c>
       <c r="C4" t="n">
-        <v>192027.5467249334</v>
+        <v>198138.1733873964</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
@@ -26442,22 +26442,22 @@
         <v>148402.4904640164</v>
       </c>
       <c r="K4" t="n">
-        <v>148402.4904640164</v>
+        <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148079.6358093552</v>
+        <v>147946.2412003005</v>
       </c>
       <c r="M4" t="n">
-        <v>147651.9979996331</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="N4" t="n">
-        <v>147651.9979996331</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="O4" t="n">
-        <v>124722.2932551426</v>
+        <v>124722.2932551427</v>
       </c>
       <c r="P4" t="n">
-        <v>124722.2932551426</v>
+        <v>124722.2932551427</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814949</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814949</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,10 +26485,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446766</v>
+        <v>60332.67530588337</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255073</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267352.0894166579</v>
+        <v>271101.9876171922</v>
       </c>
       <c r="C6" t="n">
-        <v>445347.3865510083</v>
+        <v>440750.9934937418</v>
       </c>
       <c r="D6" t="n">
-        <v>437747.9033367326</v>
+        <v>430011.614113341</v>
       </c>
       <c r="E6" t="n">
-        <v>352343.9804618564</v>
+        <v>352235.419907755</v>
       </c>
       <c r="F6" t="n">
-        <v>482796.9115995684</v>
+        <v>482688.3510454676</v>
       </c>
       <c r="G6" t="n">
-        <v>468378.7713759237</v>
+        <v>468378.7713759235</v>
       </c>
       <c r="H6" t="n">
-        <v>497473.727248938</v>
+        <v>497473.7272489378</v>
       </c>
       <c r="I6" t="n">
-        <v>497473.7272489388</v>
+        <v>497473.7272489378</v>
       </c>
       <c r="J6" t="n">
-        <v>269388.0838991889</v>
+        <v>275904.3690537621</v>
       </c>
       <c r="K6" t="n">
-        <v>491233.9588461554</v>
+        <v>491233.9588461555</v>
       </c>
       <c r="L6" t="n">
-        <v>452339.6119135676</v>
+        <v>448290.7747030946</v>
       </c>
       <c r="M6" t="n">
-        <v>454742.4503145698</v>
+        <v>453690.755303381</v>
       </c>
       <c r="N6" t="n">
-        <v>497473.727248938</v>
+        <v>497473.7272489378</v>
       </c>
       <c r="O6" t="n">
-        <v>464812.5465867734</v>
+        <v>464711.3755941851</v>
       </c>
       <c r="P6" t="n">
-        <v>483796.1064169304</v>
+        <v>483694.9354243418</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
         <v>93.99127447431644</v>
@@ -26710,22 +26710,22 @@
         <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
         <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.782842288068</v>
+        <v>831.877684307861</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304859</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.9637917208765</v>
+        <v>58.40725419351568</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165925</v>
+        <v>14.33013548902021</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769608</v>
+        <v>23.72944978769605</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631</v>
+        <v>85.18305253651715</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.705872255919</v>
+        <v>646.8007142757117</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455251</v>
+        <v>129.688382025732</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304859</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631</v>
+        <v>85.18305253651715</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>16.43170689638623</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>331.3108767356768</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>76.66721019408099</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>2.778944431915278</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -27537,10 +27537,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>4.908487384565206</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>165.3521598119321</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>172.7701603684539</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54706736229559</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>76.66721019408099</v>
+        <v>173.3191472836688</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>60.39847475326046</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>149.7286674147071</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27822,10 +27822,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -27862,13 +27862,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>300.1212326323242</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>24.53905781618727</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>60.39847475326023</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>220.1269184951917</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28749,16 +28749,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M19" t="n">
-        <v>5.636002634529177</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28989,19 +28989,19 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N22" t="n">
-        <v>5.636002634529035</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29086,7 +29086,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155848</v>
       </c>
       <c r="T23" t="n">
         <v>130.3599693155844</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,10 +29226,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>35.71049010668797</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29308,16 +29308,16 @@
         <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
+        <v>30.27223765901124</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>93.99127447431648</v>
-      </c>
-      <c r="O26" t="n">
-        <v>30.27223765901169</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431648</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901135</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431648</v>
+        <v>86.65052755599527</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431648</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,16 +29779,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="N32" t="n">
-        <v>109.586371353925</v>
+        <v>103.2865954513699</v>
       </c>
       <c r="O32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>98.7580494816105</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>44.06419228855193</v>
       </c>
       <c r="K34" t="n">
-        <v>28.92237465268076</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="R34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,37 +30141,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668963</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>35.7104901066877</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,34 +30378,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668768</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30417,37 +30417,37 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5.636002634529945</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J43" t="n">
-        <v>36.24905561693219</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023182</v>
+        <v>36.24905561693052</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023183</v>
+        <v>36.24905561692935</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="P46" t="n">
-        <v>36.24905561693174</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023193</v>
       </c>
     </row>
   </sheetData>
@@ -34699,16 +34699,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129851</v>
+        <v>6.612529228232923</v>
       </c>
       <c r="N2" t="n">
-        <v>442.9301745913326</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>289.4965392293432</v>
+        <v>450.0816793147567</v>
       </c>
       <c r="N3" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>277.4504183602698</v>
+        <v>6.612529228232923</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>414.5561590745429</v>
       </c>
       <c r="M6" t="n">
-        <v>80.7852626207583</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129851</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L8" t="n">
-        <v>128.0817426464313</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>7.465299698097082</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>484.6198681696878</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.4759251752887</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>113.782083667694</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>86.27424572268784</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
@@ -35978,7 +35978,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36045,16 +36045,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873211</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,13 +36206,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36285,19 +36285,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>188.193610950082</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,10 +36522,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683763</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>190.6760370094883</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36534,7 +36534,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>39.16725411684045</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,16 +36604,16 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039224</v>
       </c>
       <c r="O26" t="n">
-        <v>474.756683004798</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
         <v>56.3782898969832</v>
@@ -36677,13 +36677,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>73.9360531523773</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272223</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>619.7932383009064</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.3782898969832</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>23.49322931597565</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,16 +37075,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>667.5458944776557</v>
       </c>
       <c r="N32" t="n">
-        <v>642.7290820988362</v>
+        <v>636.429306196281</v>
       </c>
       <c r="O32" t="n">
-        <v>554.0708166997114</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>450.4625869881982</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37154,7 +37154,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>23.49322931597611</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>13.98970481639286</v>
       </c>
       <c r="K34" t="n">
-        <v>111.5840323394907</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.371866175945</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.759682806717</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288838</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910039</v>
+        <v>280.378083363643</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>237.1168699645224</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>119.4865978367167</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634530558</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287077</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>51.00106726098205</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634528606</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,13 +37713,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>169.9842521716088</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
@@ -37865,13 +37865,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>107.2231205187088</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.174568144773118</v>
+        <v>66.39235199807283</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570418</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922518</v>
+        <v>202.0345504389505</v>
       </c>
       <c r="M43" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451906</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.9236034803843</v>
+        <v>99.92360348038439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>424.9260266620927</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807277</v>
+        <v>6.174568144770276</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570418</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922518</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230238</v>
+        <v>284.6401509230239</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451906</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073107</v>
+        <v>260.8150890073108</v>
       </c>
       <c r="P46" t="n">
-        <v>157.3360917548899</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038432</v>
+        <v>99.92360348038441</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
